--- a/biology/Botanique/Ximenia_americana/Ximenia_americana.xlsx
+++ b/biology/Botanique/Ximenia_americana/Ximenia_americana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ximenia americana est un arbre pantropical appartement à la famille des Ximeniaceae selon la classification APG IV (anciennement inclus dans la famille des Olacaceae), très répandu en Afrique de l'Ouest.
 </t>
@@ -511,27 +523,29 @@
           <t>Noms communs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il porte de nombreux noms : 
-en français : citron de mer[3],[4],[5], heymassoli épineux, macaby (Guyane), prune-épine, prunier de mer (Nouvelle-Calédonie), prunier canaque (Nouvelle-Calédonie)[6], mirabellier du désert[7].
+en français : citron de mer heymassoli épineux, macaby (Guyane), prune-épine, prunier de mer (Nouvelle-Calédonie), prunier canaque (Nouvelle-Calédonie), mirabellier du désert.
 en anglais : buol, false santalwood, hog plum, mountain plum, seaside plum, spanish plum, tallowwood plum, wild olive (Jamaïque), yellow sanders.
 en espagnol : albaria (Argentine), albaricoque (Argentine), albarillo (Argentine), cagalero (Honduras), caimito de monte (Colombie), chocomico (Guatemala, Honduras), espino de brujo (Colombie), guayabo del diablo (Venezuela), jocomico (Nicaragua), limoncillo (Colombie, Pérou, Venezuela), manzana guayaba (Venezuela), manzanillo (Guatemala, Honduras, Salvador), membrillo de monte (Guatemala), pata (Argentine), pepenance (Amérique centrale), tigrito (Venezuela), tocote de monte (Guatemala), yana (Cuba).
-en baya : mi[8]
-en fufuldé : tchabuli, tchaboulé[7] ou tsaboulhi[8] (dont le nord du Cameroun).
-en guiziga : toumbori[8]
-en haoussa : tsada[8]
-en koma : gate[8]
-en massa : nourloude[8]
-en mofou : tendedez[8]
-en moundeng : bouré[8]
-en toupouri : ponrii[8]
-en pahouin (Gabon[9]) : elozy, zégué[10]
-au Galango Alto (Angola) : muhinge[10]
-vers Moçâmedes près des montagnes de Chela (Angola) : umpeque[10]
-au Congo : gengi[10]
-en portugais (Brésil) : ameixa, ameixeira do campo, espinha de maicha[6].
-au Mexique : alvarillo del campo[11].</t>
+en baya : mi
+en fufuldé : tchabuli, tchaboulé ou tsaboulhi (dont le nord du Cameroun).
+en guiziga : toumbori
+en haoussa : tsada
+en koma : gate
+en massa : nourloude
+en mofou : tendedez
+en moundeng : bouré
+en toupouri : ponrii
+en pahouin (Gabon) : elozy, zégué
+au Galango Alto (Angola) : muhinge
+vers Moçâmedes près des montagnes de Chela (Angola) : umpeque
+au Congo : gengi
+en portugais (Brésil) : ameixa, ameixeira do campo, espinha de maicha.
+au Mexique : alvarillo del campo.</t>
         </is>
       </c>
     </row>
@@ -559,9 +573,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Ximenia est nommé en honneur de Francisco Ximenes de Luna, moine franciscain botaniste du XVIIe siècle[12] (ne pas confondre avec Francisco Ximenes de Cisneros, lui aussi franciscain avant de devenir cardinal-archevêque de Tolède).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Ximenia est nommé en honneur de Francisco Ximenes de Luna, moine franciscain botaniste du XVIIe siècle (ne pas confondre avec Francisco Ximenes de Cisneros, lui aussi franciscain avant de devenir cardinal-archevêque de Tolède).
 </t>
         </is>
       </c>
@@ -590,7 +606,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Stature
 Ximenia Americana est un arbuste épineux ou un petit arbre pouvant atteindre 6 à 8 m de hauteur et 15 cm de diamètre.
@@ -599,9 +617,9 @@
 Feuilles
 Les feuilles sont alternes, avec un sommet arrondi ou en coin. Elles sont fréquemment repliées en gouttière le long de la nervure principale. Leur longueur varie de 3 à 9 cm.
 Piquants
-Selon André Rançon, les rameaux portent, en général, quelques dards acérés d’environ 3 cm au plus de longueur — mais ce caractère n’est pas constant[13].
+Selon André Rançon, les rameaux portent, en général, quelques dards acérés d’environ 3 cm au plus de longueur — mais ce caractère n’est pas constant.
 Fleurs et fruits
-Les fleurs sont regroupées en grappes très odorantes dont le parfum est comparable à celui des fleurs d’oranger. Elles apparaissent plutôt en deuxième partie de la saison sèche. Leur couleur va du blanc crème au jaune verdâtre. Le fruit, d’une taille de 2 à 3 cm de long, et de 1 à 2 cm de large est semblable à une prune. Sa forme est elliptique et sa couleur varie jaune à l'orange lorsqu'il arrive à maturité. Le fruit contient un noyau comportant une seule graine très riche en huile, jusqu'à 75 % de son poids [14].
+Les fleurs sont regroupées en grappes très odorantes dont le parfum est comparable à celui des fleurs d’oranger. Elles apparaissent plutôt en deuxième partie de la saison sèche. Leur couleur va du blanc crème au jaune verdâtre. Le fruit, d’une taille de 2 à 3 cm de long, et de 1 à 2 cm de large est semblable à une prune. Sa forme est elliptique et sa couleur varie jaune à l'orange lorsqu'il arrive à maturité. Le fruit contient un noyau comportant une seule graine très riche en huile, jusqu'à 75 % de son poids .
 			Fleur et boutons floraux
 			Fleurs
 			Fleur plus épanouie
@@ -634,11 +652,13 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On rencontre Ximenia americana dans presque toutes les régions tropicales du globe. 
-En Amérique, il pousse dans les zones côtières broussailleuses et zones de transition avant la forêt du Honduras au Brésil et à l'Argentine[6].
-En Afrique, son aire de répartition s'étend à toute l'Afrique tropicale, du Sénégal à l'Angola et à l'Ouganda, dans les savanes, les galeries forestières, les sables et les taillis littoraux[8].
+En Amérique, il pousse dans les zones côtières broussailleuses et zones de transition avant la forêt du Honduras au Brésil et à l'Argentine.
+En Afrique, son aire de répartition s'étend à toute l'Afrique tropicale, du Sénégal à l'Angola et à l'Ouganda, dans les savanes, les galeries forestières, les sables et les taillis littoraux.
 </t>
         </is>
       </c>
@@ -667,22 +687,24 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ximenia americana est une espèce végétale présentant un grand intérêt socio-économique. Toutes les parties de la plante sont utilisées par l'Homme : les racines, les feuilles, les fruits ainsi que le bois. L'amande de Ximenia americana est réputée toxique. Elle contient en effet de l'acide cyanhydrique.
 Usages avérés en pharmacopée
 L'infusion de feuilles soulage les maux d'estomac.
-La macération de racines est employée dans la prévention et le traitement des problèmes cardiaques. Les racines bouillies utilisées en décoction servent à lutter contre l'anémie ou les problèmes gastriques.[réf. nécessaire] Selon Moloney, le fruit est légèrement laxatif et les graines sont purgatives[9]. Mais Heckel, qui rassemble les points de vue de nombre d'auteurs, conclut que l'action purgative est propre à quelques variétés de cette espèce et cite Engler qui arrive à la même conclusion[11] (la section citée est écrite par Warburg dans une publication en deux volumes dirigée par Adolf Engler[15]) ; Heckel ajoute que « la variété océanienne dénommée par Forster Ximenia elliptica [synonyme de Ximenia americana], qui est décrite et figurée dans le Sertum austrocaledonicum de Labillardière (p. 34, tab. 37) […] passe, parmi les indigènes et les Européens, pour donner une graine purgative »[11].
-La poudre de la plante, traditionnellement utilisée en Afrique pour traiter les cancers, contient des protéines avec des affinités au galactose[16] (les cellules cancéreuses, comme toutes les cellules, ont besoin de glucose mais ne peuvent pas assimiler le galactose : si ce dernier est le seul produit glucidique fourni, ces cellules malades meurent par défaut de "carburant"[17]). L'une des protéines de X. americana contient une série de 11 amino-acides identiques au peptide triptyque de la ricine, connue pour désactiver les ribosomes[16]. Les protéines désactivant les ribosomes sont inhibitrices de la synthèse des protéines cellulaires (anti-tumeurs) en plus d'être anrivirales[18].
+La macération de racines est employée dans la prévention et le traitement des problèmes cardiaques. Les racines bouillies utilisées en décoction servent à lutter contre l'anémie ou les problèmes gastriques.[réf. nécessaire] Selon Moloney, le fruit est légèrement laxatif et les graines sont purgatives. Mais Heckel, qui rassemble les points de vue de nombre d'auteurs, conclut que l'action purgative est propre à quelques variétés de cette espèce et cite Engler qui arrive à la même conclusion (la section citée est écrite par Warburg dans une publication en deux volumes dirigée par Adolf Engler) ; Heckel ajoute que « la variété océanienne dénommée par Forster Ximenia elliptica [synonyme de Ximenia americana], qui est décrite et figurée dans le Sertum austrocaledonicum de Labillardière (p. 34, tab. 37) […] passe, parmi les indigènes et les Européens, pour donner une graine purgative ».
+La poudre de la plante, traditionnellement utilisée en Afrique pour traiter les cancers, contient des protéines avec des affinités au galactose (les cellules cancéreuses, comme toutes les cellules, ont besoin de glucose mais ne peuvent pas assimiler le galactose : si ce dernier est le seul produit glucidique fourni, ces cellules malades meurent par défaut de "carburant"). L'une des protéines de X. americana contient une série de 11 amino-acides identiques au peptide triptyque de la ricine, connue pour désactiver les ribosomes. Les protéines désactivant les ribosomes sont inhibitrices de la synthèse des protéines cellulaires (anti-tumeurs) en plus d'être anrivirales.
 Usages alimentaires et culinaires
-La pulpe du fruit, très acide et aromatique, est également riche en vitamine C est utilisée pour confectionner des confitures. Mise à fermenter, elle donne une boisson alcoolisée. L'amande est comestible crue {bien que réputée toxique ?!?} ou grillée[6] ; on en extrait une huile utilisée en cuisine[7].
-En Inden cette huile est utilisée comme substitut au ghee[12].
+La pulpe du fruit, très acide et aromatique, est également riche en vitamine C est utilisée pour confectionner des confitures. Mise à fermenter, elle donne une boisson alcoolisée. L'amande est comestible crue {bien que réputée toxique ?!?} ou grillée ; on en extrait une huile utilisée en cuisine.
+En Inden cette huile est utilisée comme substitut au ghee.
 Usages agricoles, pastoraux et vétérinaires
 Les arbres peuvent convenir en haie vive.
 Usages domestiques, artisanaux et industriels
-Le bois lourd et très dur est facile à travailler et à polir. Il s'utilise en menuiserie. Le bois est également employé comme combustible tandis que l’écorce sert au tannage des cuirs.[réf. nécessaire] Il est aromatique (odoriférant) et est utilisé dans l'ouest de l'Inde comme substitut au bois de santal[9],[12],[11].
+Le bois lourd et très dur est facile à travailler et à polir. Il s'utilise en menuiserie. Le bois est également employé comme combustible tandis que l’écorce sert au tannage des cuirs.[réf. nécessaire] Il est aromatique (odoriférant) et est utilisé dans l'ouest de l'Inde comme substitut au bois de santal.
 Usages cosmétiques
-L'huile tirée de l'amande de la graine est riche en acides gras, en vitamines ainsi qu'en anti-oxydants qui lui confèrent des propriétés réparatrices, protectrices et apaisantes. Elle est employée dans les soins du visage et des cheveux[19]. Les Himbas de Namibie la mélange à de l'ocre rouge.[réf. nécessaire] Elle est également utilisée dans la confection de savons[9],[20], ainsi que pour l'éclairage.
+L'huile tirée de l'amande de la graine est riche en acides gras, en vitamines ainsi qu'en anti-oxydants qui lui confèrent des propriétés réparatrices, protectrices et apaisantes. Elle est employée dans les soins du visage et des cheveux. Les Himbas de Namibie la mélange à de l'ocre rouge.[réf. nécessaire] Elle est également utilisée dans la confection de savons ainsi que pour l'éclairage.
 </t>
         </is>
       </c>
@@ -711,9 +733,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le multiplie par graines. Elles nécessitent 50 à 70 jours pour lever[6].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le multiplie par graines. Elles nécessitent 50 à 70 jours pour lever.
 </t>
         </is>
       </c>
@@ -742,10 +766,12 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est décrite pour la première fois par Linné en 1753 dans Species plantarum, t. 2, p. 1193-94, sous le nom de Ximenia aculeata[21] — qui pourtant est généralement attribué à Crantz (1766)[22].
-En 1775, le botaniste Aublet propose la diagnose suivante pour Heymassoli inermis (synonyme de Ximenia americana)[23] : 
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est décrite pour la première fois par Linné en 1753 dans Species plantarum, t. 2, p. 1193-94, sous le nom de Ximenia aculeata — qui pourtant est généralement attribué à Crantz (1766).
+En 1775, le botaniste Aublet propose la diagnose suivante pour Heymassoli inermis (synonyme de Ximenia americana) : 
 « HEYMASSOLI (inermis). 
 In eo tantùm diſſert quod aculcis careat. Flores expanſi odoram caryophyllorum aromaticorum exhalant. 
 Florebat &amp; fructum ferebat Maio. 
@@ -765,7 +791,7 @@
 lis étoient en fleur &amp; en fruit dans le mois de Mai. 
 lis ſont appellés HEYMASSOLl par les Galibis. 
 L'on a groſſi toutes les parties de la fleur. »
-La plante est décrite par Adolf Engler dans Die Vegetation der Erde en 1915[24].
+La plante est décrite par Adolf Engler dans Die Vegetation der Erde en 1915.
 </t>
         </is>
       </c>
